--- a/data_process/xlsx/jongno_D2_processed.xlsx
+++ b/data_process/xlsx/jongno_D2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -549,8 +559,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9860582</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.569884</v>
       </c>
     </row>
     <row r="3">
@@ -607,8 +623,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>126.9860377</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5693665</v>
       </c>
     </row>
     <row r="4">
@@ -665,8 +687,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>127.0020846</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5839822</v>
       </c>
     </row>
     <row r="5">
@@ -723,8 +751,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>127.0211246</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5707646</v>
       </c>
     </row>
     <row r="6">
@@ -781,8 +815,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9981823</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5839747</v>
       </c>
     </row>
     <row r="7">
@@ -839,8 +879,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0081041</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5674846</v>
       </c>
     </row>
     <row r="8">
@@ -897,8 +943,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>126.9884461</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5791131</v>
       </c>
     </row>
     <row r="9">
@@ -955,8 +1007,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9884461</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5791131</v>
       </c>
     </row>
     <row r="10">
@@ -1013,8 +1071,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>127.0073812</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5668017</v>
       </c>
     </row>
     <row r="11">
@@ -1071,8 +1135,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.9981823</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5839747</v>
       </c>
     </row>
     <row r="12">
@@ -1129,8 +1199,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>126.9901834</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5608951</v>
       </c>
     </row>
     <row r="13">
@@ -1187,8 +1263,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:23</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>126.9850843</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5601832</v>
       </c>
     </row>
   </sheetData>
